--- a/PANAMÁ/Delitos/Violencia Doméstica.xlsx
+++ b/PANAMÁ/Delitos/Violencia Doméstica.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Delitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFE3A9A-AD75-47FC-939B-205498FEAE9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1C3C22-3CAC-414F-AD62-7802C8895A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BEF0645C-B338-4094-91BA-835490654FEB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BEF0645C-B338-4094-91BA-835490654FEB}"/>
   </bookViews>
   <sheets>
     <sheet name="N° Denuncias Por Fecha" sheetId="1" r:id="rId1"/>
@@ -277,16 +277,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -301,8 +301,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="0"/>
-          <a:ext cx="3790950" cy="1666875"/>
+          <a:off x="9652000" y="247650"/>
+          <a:ext cx="3790950" cy="1616075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -647,17 +647,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A7837E-BBDB-4F2E-BB2F-AF158EBB7D11}">
   <dimension ref="A1:Z127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="6"/>
-    <col min="5" max="5" width="11.42578125" style="7"/>
+    <col min="2" max="2" width="11.453125" style="6"/>
+    <col min="3" max="3" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +682,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>2020</v>
       </c>
@@ -703,7 +705,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2020</v>
       </c>
@@ -726,7 +728,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2020</v>
       </c>
@@ -743,7 +745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2020</v>
       </c>
@@ -760,7 +762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2020</v>
       </c>
@@ -777,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2020</v>
       </c>
@@ -794,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>2020</v>
       </c>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>2020</v>
       </c>
@@ -837,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2020</v>
       </c>
@@ -854,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>2020</v>
       </c>
@@ -888,7 +890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>2020</v>
       </c>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>2020</v>
       </c>
@@ -922,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>2020</v>
       </c>
@@ -939,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>2020</v>
       </c>
@@ -962,7 +964,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2020</v>
       </c>
@@ -985,7 +987,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>2020</v>
       </c>
@@ -1002,7 +1004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>2020</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>2020</v>
       </c>
@@ -1036,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>2020</v>
       </c>
@@ -1053,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>2020</v>
       </c>
@@ -1079,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>2020</v>
       </c>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>2020</v>
       </c>
@@ -1113,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>2020</v>
       </c>
@@ -1130,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>2020</v>
       </c>
@@ -1147,7 +1149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>2020</v>
       </c>
@@ -1164,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>2020</v>
       </c>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>2020</v>
       </c>
@@ -1198,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>2020</v>
       </c>
@@ -1221,7 +1223,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>2020</v>
       </c>
@@ -1238,7 +1240,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>2020</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>2020</v>
       </c>
@@ -1272,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>2020</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>2020</v>
       </c>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>2020</v>
       </c>
@@ -1332,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>2020</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>2020</v>
       </c>
@@ -1366,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>2020</v>
       </c>
@@ -1383,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>2020</v>
       </c>
@@ -1400,7 +1402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>2020</v>
       </c>
@@ -1417,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>2020</v>
       </c>
@@ -1434,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>2020</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>2020</v>
       </c>
@@ -1474,7 +1476,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>2020</v>
       </c>
@@ -1491,7 +1493,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>2020</v>
       </c>
@@ -1508,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>2020</v>
       </c>
@@ -1525,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>2020</v>
       </c>
@@ -1542,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>2020</v>
       </c>
@@ -1559,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>2020</v>
       </c>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>2020</v>
       </c>
@@ -1593,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>2020</v>
       </c>
@@ -1610,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>2020</v>
       </c>
@@ -1627,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>2020</v>
       </c>
@@ -1644,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>2020</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>2020</v>
       </c>
@@ -1678,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>2020</v>
       </c>
@@ -1695,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>2020</v>
       </c>
@@ -1718,7 +1720,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>2020</v>
       </c>
@@ -1735,7 +1737,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>2020</v>
       </c>
@@ -1752,7 +1754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>2020</v>
       </c>
@@ -1769,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>2020</v>
       </c>
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>2020</v>
       </c>
@@ -1803,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>2020</v>
       </c>
@@ -1820,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>2020</v>
       </c>
@@ -1837,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>2020</v>
       </c>
@@ -1854,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>2020</v>
       </c>
@@ -1871,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>2020</v>
       </c>
@@ -1888,7 +1890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>2020</v>
       </c>
@@ -1905,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>2020</v>
       </c>
@@ -1922,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>2020</v>
       </c>
@@ -1939,7 +1941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>2020</v>
       </c>
@@ -1962,7 +1964,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>2020</v>
       </c>
@@ -1979,7 +1981,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>2020</v>
       </c>
@@ -1996,7 +1998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>2020</v>
       </c>
@@ -2013,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>2020</v>
       </c>
@@ -2030,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>2020</v>
       </c>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>2020</v>
       </c>
@@ -2073,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>2020</v>
       </c>
@@ -2090,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>2020</v>
       </c>
@@ -2107,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>2020</v>
       </c>
@@ -2124,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>2020</v>
       </c>
@@ -2141,7 +2143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>2020</v>
       </c>
@@ -2158,7 +2160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>2020</v>
       </c>
@@ -2175,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>2020</v>
       </c>
@@ -2192,7 +2194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>2020</v>
       </c>
@@ -2215,7 +2217,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>2020</v>
       </c>
@@ -2232,7 +2234,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>2020</v>
       </c>
@@ -2249,7 +2251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>2020</v>
       </c>
@@ -2266,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>2020</v>
       </c>
@@ -2283,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>2020</v>
       </c>
@@ -2300,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>2020</v>
       </c>
@@ -2326,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>2020</v>
       </c>
@@ -2343,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>2020</v>
       </c>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>2020</v>
       </c>
@@ -2377,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>2020</v>
       </c>
@@ -2394,7 +2396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>2020</v>
       </c>
@@ -2411,7 +2413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>2020</v>
       </c>
@@ -2428,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>2020</v>
       </c>
@@ -2445,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>2020</v>
       </c>
@@ -2468,7 +2470,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>2020</v>
       </c>
@@ -2485,7 +2487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>2020</v>
       </c>
@@ -2502,7 +2504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>2020</v>
       </c>
@@ -2519,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>2020</v>
       </c>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>2020</v>
       </c>
@@ -2553,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>2020</v>
       </c>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>2020</v>
       </c>
@@ -2587,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>2020</v>
       </c>
@@ -2605,7 +2607,7 @@
       </c>
       <c r="F108" s="9"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>2020</v>
       </c>
@@ -2623,7 +2625,7 @@
       </c>
       <c r="F109" s="9"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>2020</v>
       </c>
@@ -2641,7 +2643,7 @@
       </c>
       <c r="F110" s="9"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>2020</v>
       </c>
@@ -2658,7 +2660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>2020</v>
       </c>
@@ -2675,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>2020</v>
       </c>
@@ -2693,7 +2695,7 @@
       </c>
       <c r="F113" s="9"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>2020</v>
       </c>
@@ -2716,7 +2718,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>2020</v>
       </c>
@@ -2733,7 +2735,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>2020</v>
       </c>
@@ -2750,7 +2752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>2020</v>
       </c>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>2020</v>
       </c>
@@ -2784,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>2020</v>
       </c>
@@ -2801,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>2020</v>
       </c>
@@ -2818,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>2020</v>
       </c>
@@ -2835,7 +2837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>2020</v>
       </c>
@@ -2852,7 +2854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>2020</v>
       </c>
@@ -2869,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>2020</v>
       </c>
@@ -2886,7 +2888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>2020</v>
       </c>
@@ -2903,7 +2905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>2020</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>2020</v>
       </c>
@@ -2952,16 +2954,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC7037D-5D15-4ACD-A878-50148AB4CCDE}">
   <dimension ref="A1:E197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E184" sqref="E184:E197"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2978,7 +2982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -2995,7 +2999,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -3012,7 +3016,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -3029,7 +3033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -3046,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -3063,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -3080,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -3097,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -3114,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -3131,7 +3135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -3148,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -3182,7 +3186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -3199,7 +3203,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -3216,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -3233,7 +3237,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2020</v>
       </c>
@@ -3267,7 +3271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -3284,7 +3288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -3301,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -3318,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -3335,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2020</v>
       </c>
@@ -3352,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2020</v>
       </c>
@@ -3369,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -3386,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2020</v>
       </c>
@@ -3403,7 +3407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -3420,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2020</v>
       </c>
@@ -3437,7 +3441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2020</v>
       </c>
@@ -3454,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2020</v>
       </c>
@@ -3471,7 +3475,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2020</v>
       </c>
@@ -3488,7 +3492,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2020</v>
       </c>
@@ -3505,7 +3509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2020</v>
       </c>
@@ -3522,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2020</v>
       </c>
@@ -3539,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2020</v>
       </c>
@@ -3556,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2020</v>
       </c>
@@ -3590,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -3607,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -3624,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2020</v>
       </c>
@@ -3641,7 +3645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2020</v>
       </c>
@@ -3658,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -3675,7 +3679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -3692,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -3709,7 +3713,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -3726,7 +3730,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2020</v>
       </c>
@@ -3743,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2020</v>
       </c>
@@ -3760,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -3777,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2020</v>
       </c>
@@ -3794,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2020</v>
       </c>
@@ -3811,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2020</v>
       </c>
@@ -3828,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2020</v>
       </c>
@@ -3845,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2020</v>
       </c>
@@ -3862,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -3879,7 +3883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2020</v>
       </c>
@@ -3896,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2020</v>
       </c>
@@ -3913,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2020</v>
       </c>
@@ -3930,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2020</v>
       </c>
@@ -3947,7 +3951,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2020</v>
       </c>
@@ -3964,7 +3968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2020</v>
       </c>
@@ -3981,7 +3985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2020</v>
       </c>
@@ -3998,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2020</v>
       </c>
@@ -4015,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2020</v>
       </c>
@@ -4032,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2020</v>
       </c>
@@ -4049,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2020</v>
       </c>
@@ -4066,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2020</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2020</v>
       </c>
@@ -4100,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -4117,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2020</v>
       </c>
@@ -4134,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2020</v>
       </c>
@@ -4151,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2020</v>
       </c>
@@ -4168,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2020</v>
       </c>
@@ -4185,7 +4189,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2020</v>
       </c>
@@ -4202,7 +4206,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2020</v>
       </c>
@@ -4219,7 +4223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2020</v>
       </c>
@@ -4236,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2020</v>
       </c>
@@ -4253,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2020</v>
       </c>
@@ -4270,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2020</v>
       </c>
@@ -4287,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2020</v>
       </c>
@@ -4304,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2020</v>
       </c>
@@ -4321,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2020</v>
       </c>
@@ -4338,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2020</v>
       </c>
@@ -4355,7 +4359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2020</v>
       </c>
@@ -4372,7 +4376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2020</v>
       </c>
@@ -4389,7 +4393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2020</v>
       </c>
@@ -4406,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2020</v>
       </c>
@@ -4423,7 +4427,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2020</v>
       </c>
@@ -4440,7 +4444,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2020</v>
       </c>
@@ -4457,7 +4461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2020</v>
       </c>
@@ -4474,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2020</v>
       </c>
@@ -4491,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -4508,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2020</v>
       </c>
@@ -4525,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>2020</v>
       </c>
@@ -4542,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>2020</v>
       </c>
@@ -4559,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>2020</v>
       </c>
@@ -4576,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2020</v>
       </c>
@@ -4593,7 +4597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2020</v>
       </c>
@@ -4610,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2020</v>
       </c>
@@ -4627,7 +4631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2020</v>
       </c>
@@ -4644,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2020</v>
       </c>
@@ -4661,7 +4665,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2020</v>
       </c>
@@ -4678,7 +4682,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>2020</v>
       </c>
@@ -4695,7 +4699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2020</v>
       </c>
@@ -4712,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>2020</v>
       </c>
@@ -4729,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>2020</v>
       </c>
@@ -4746,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>2020</v>
       </c>
@@ -4763,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>2020</v>
       </c>
@@ -4780,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>2020</v>
       </c>
@@ -4797,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>2020</v>
       </c>
@@ -4814,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>2020</v>
       </c>
@@ -4831,7 +4835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>2020</v>
       </c>
@@ -4848,7 +4852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>2020</v>
       </c>
@@ -4865,7 +4869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>2020</v>
       </c>
@@ -4882,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2020</v>
       </c>
@@ -4899,7 +4903,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>2020</v>
       </c>
@@ -4916,7 +4920,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>2020</v>
       </c>
@@ -4933,7 +4937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>2020</v>
       </c>
@@ -4950,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>2020</v>
       </c>
@@ -4967,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>2020</v>
       </c>
@@ -4984,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>2020</v>
       </c>
@@ -5001,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>2020</v>
       </c>
@@ -5018,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>2020</v>
       </c>
@@ -5035,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>2020</v>
       </c>
@@ -5052,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>2020</v>
       </c>
@@ -5069,7 +5073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>2020</v>
       </c>
@@ -5086,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>2020</v>
       </c>
@@ -5103,7 +5107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>2020</v>
       </c>
@@ -5120,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>2020</v>
       </c>
@@ -5137,7 +5141,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>2020</v>
       </c>
@@ -5154,7 +5158,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>2020</v>
       </c>
@@ -5171,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>2020</v>
       </c>
@@ -5188,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>2020</v>
       </c>
@@ -5205,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>2020</v>
       </c>
@@ -5222,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>2020</v>
       </c>
@@ -5239,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>2020</v>
       </c>
@@ -5256,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>2020</v>
       </c>
@@ -5273,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>2020</v>
       </c>
@@ -5290,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>2020</v>
       </c>
@@ -5307,7 +5311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>2020</v>
       </c>
@@ -5324,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>2020</v>
       </c>
@@ -5341,7 +5345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>2020</v>
       </c>
@@ -5358,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>2020</v>
       </c>
@@ -5375,7 +5379,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>2020</v>
       </c>
@@ -5392,7 +5396,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>2020</v>
       </c>
@@ -5409,7 +5413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>2020</v>
       </c>
@@ -5426,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>2020</v>
       </c>
@@ -5443,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>2020</v>
       </c>
@@ -5460,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>2020</v>
       </c>
@@ -5477,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>2020</v>
       </c>
@@ -5494,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>2020</v>
       </c>
@@ -5511,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>2020</v>
       </c>
@@ -5528,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>2020</v>
       </c>
@@ -5545,7 +5549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>2020</v>
       </c>
@@ -5562,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>2020</v>
       </c>
@@ -5579,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>2020</v>
       </c>
@@ -5596,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>2020</v>
       </c>
@@ -5613,7 +5617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>2020</v>
       </c>
@@ -5630,7 +5634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>2020</v>
       </c>
@@ -5647,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>2020</v>
       </c>
@@ -5664,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>2020</v>
       </c>
@@ -5681,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>2020</v>
       </c>
@@ -5698,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>2020</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>2020</v>
       </c>
@@ -5732,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>2020</v>
       </c>
@@ -5749,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>2020</v>
       </c>
@@ -5766,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>2020</v>
       </c>
@@ -5783,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>2020</v>
       </c>
@@ -5800,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>2020</v>
       </c>
@@ -5817,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>2020</v>
       </c>
@@ -5834,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>2020</v>
       </c>
@@ -5851,7 +5855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>2020</v>
       </c>
@@ -5868,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>2020</v>
       </c>
@@ -5885,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>2020</v>
       </c>
@@ -5902,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>2020</v>
       </c>
@@ -5919,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>2020</v>
       </c>
@@ -5936,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>2020</v>
       </c>
@@ -5953,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>2020</v>
       </c>
@@ -5970,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>2020</v>
       </c>
@@ -5987,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>2020</v>
       </c>
@@ -6004,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>2020</v>
       </c>
@@ -6021,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>2020</v>
       </c>
@@ -6038,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>2020</v>
       </c>
@@ -6055,7 +6059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>2020</v>
       </c>
@@ -6072,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>2020</v>
       </c>
@@ -6089,7 +6093,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>2020</v>
       </c>
@@ -6106,7 +6110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>2020</v>
       </c>
@@ -6123,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>2020</v>
       </c>
@@ -6140,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>2020</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>2020</v>
       </c>
@@ -6174,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>2020</v>
       </c>
@@ -6191,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>2020</v>
       </c>
@@ -6208,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>2020</v>
       </c>
@@ -6225,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>2020</v>
       </c>
@@ -6242,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>2020</v>
       </c>
@@ -6259,7 +6263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>2020</v>
       </c>
@@ -6276,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>2020</v>
       </c>
@@ -6293,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>2020</v>
       </c>
